--- a/Project/指令集.xlsx
+++ b/Project/指令集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Study\cources\计算机组织与结构课程设计\quartus_project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F208F74-C216-433D-89B8-C5D507E3014E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BAD8FC-3A7F-4430-805B-FB8321482527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <r>
       <t>MDR_</t>
@@ -98,9 +98,6 @@
     <t>控存内容</t>
   </si>
   <si>
-    <t>19 | 18 | 17</t>
-  </si>
-  <si>
     <t>15 | 14</t>
   </si>
   <si>
@@ -116,11 +113,75 @@
     <t>2 | 1 | 0</t>
   </si>
   <si>
-    <t>(≧▽≦*)</t>
+    <t>HALT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HALT</t>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20 | 19 | 18 | 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0 S1 S2 S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -290,19 +351,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,13 +394,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -642,140 +719,195 @@
     <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.3" x14ac:dyDescent="0.6">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:20" ht="15.3" x14ac:dyDescent="0.6">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="7">
+        <v>16</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6">
+        <v>11</v>
+      </c>
+      <c r="O2" s="7">
+        <v>10</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>7</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="6">
+        <v>3</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.5">
-      <c r="A2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="10">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="10">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9">
-        <v>21</v>
-      </c>
-      <c r="I2" s="11">
-        <v>20</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="10">
-        <v>16</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="9">
-        <v>11</v>
-      </c>
-      <c r="O2" s="10">
-        <v>10</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>7</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="9">
-        <v>3</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D13" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D19" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:I1"/>
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Project/指令集.xlsx
+++ b/Project/指令集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Study\cources\计算机组织与结构课程设计\quartus_project\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\quartus_project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BAD8FC-3A7F-4430-805B-FB8321482527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDC7E73-6E4F-4639-8B96-059853AF2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="microprogram" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+  <si>
+    <t>A寄存器选择</t>
+  </si>
+  <si>
+    <t>B寄存器选择</t>
+  </si>
+  <si>
+    <t>\WR</t>
+  </si>
+  <si>
+    <t>\RD</t>
+  </si>
+  <si>
+    <t>CP选择</t>
+  </si>
+  <si>
+    <t>后继微地址形成</t>
+  </si>
+  <si>
+    <t>指令</t>
+  </si>
+  <si>
+    <t>合并的微指令</t>
+  </si>
+  <si>
+    <t>微指令文字描述</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>控存内容</t>
+  </si>
+  <si>
+    <t>15 | 14</t>
+  </si>
+  <si>
+    <t>13 | 12</t>
+  </si>
+  <si>
+    <t>9 | 8</t>
+  </si>
+  <si>
+    <t>6 | 5 | 4</t>
+  </si>
+  <si>
+    <t>2 | 1 | 0</t>
+  </si>
+  <si>
+    <t>HALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20 | 19 | 18 | 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0 S1 S2 S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M(MAR)-&gt;MDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A选PC，01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-&gt;A，A-&gt;ALU-&gt;MAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <r>
       <t>MDR_</t>
@@ -63,125 +183,239 @@
       </rPr>
       <t>BUS</t>
     </r>
-  </si>
-  <si>
-    <t>A寄存器选择</t>
-  </si>
-  <si>
-    <t>B寄存器选择</t>
-  </si>
-  <si>
-    <t>\WR</t>
-  </si>
-  <si>
-    <t>\RD</t>
-  </si>
-  <si>
-    <t>CP选择</t>
-  </si>
-  <si>
-    <t>后继微地址形成</t>
-  </si>
-  <si>
-    <t>指令</t>
-  </si>
-  <si>
-    <t>合并的微指令</t>
-  </si>
-  <si>
-    <t>微指令文字描述</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>控存内容</t>
-  </si>
-  <si>
-    <t>15 | 14</t>
-  </si>
-  <si>
-    <t>13 | 12</t>
-  </si>
-  <si>
-    <t>9 | 8</t>
-  </si>
-  <si>
-    <t>6 | 5 | 4</t>
-  </si>
-  <si>
-    <t>2 | 1 | 0</t>
-  </si>
-  <si>
-    <t>HALT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,内存到MDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001,μPC+1</t>
+  </si>
+  <si>
+    <t>001,μPC+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC+1-&gt;PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XJP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B选MDR，01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,按XJP寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDR-&gt;ALU-&gt;MAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，内存到MDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDR-&gt;ALU-&gt;IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.按QJP寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20 | 19 | 18 | 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0 S1 S2 S3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOAD 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDR-&gt;ALU-&gt;ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP无条件转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010，无条件转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01,
+存储器直接寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QJP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC-&gt;ALU-&gt;MDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A选ACC,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDR-&gt;ALU-&gt;M(MAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,MDR到内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORE 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,按QJP寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10
+立即寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOAD 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-&gt;ALU-&gt;MAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 寄存器间接寻址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -362,26 +596,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -397,22 +634,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -696,218 +959,1110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="6.6484375" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="16.34765625" customWidth="1"/>
-    <col min="12" max="12" width="15.1484375" customWidth="1"/>
-    <col min="13" max="13" width="14.09765625" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="20.296875" customWidth="1"/>
-    <col min="18" max="18" width="11.25" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="1" max="1" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.4140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="14.08203125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="8"/>
+    <col min="15" max="15" width="11.5" style="8" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.25" style="20" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="8"/>
+    <col min="20" max="20" width="18" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.3" x14ac:dyDescent="0.6">
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="16" t="s">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="5">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4">
+        <v>11</v>
+      </c>
+      <c r="O2" s="5">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>7</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="R3" s="20">
+        <v>110</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="R4" s="20">
+        <v>101</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D8" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D9" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D16" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D17" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D18" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="8">
+        <v>12</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D22" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D23" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D24" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D25" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D26" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D29" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D30" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D31" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D33" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D34" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D35" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D36" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D37" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D38" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="8">
+        <v>24</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8">
+        <v>1</v>
+      </c>
+      <c r="R39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0</v>
+      </c>
+      <c r="T39" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="8">
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>1</v>
+      </c>
+      <c r="R40" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="S40" s="8">
+        <v>0</v>
+      </c>
+      <c r="T40" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="8">
+        <v>26</v>
+      </c>
+      <c r="T41" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D42" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="8">
+        <v>28</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>1</v>
+      </c>
+      <c r="R43" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0</v>
+      </c>
+      <c r="T43" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="8">
+        <v>29</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>1</v>
+      </c>
+      <c r="R44" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T45" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D47" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D48" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D49" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D50" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D51" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D52" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D53" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D54" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="8">
+        <v>34</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>1</v>
+      </c>
+      <c r="R55" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0</v>
+      </c>
+      <c r="T55" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="8">
+        <v>35</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" s="8">
+        <v>1</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S56" s="8">
+        <v>0</v>
+      </c>
+      <c r="T56" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="8">
         <v>36</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="T57" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D58" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D59" s="8">
         <v>38</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="7">
-        <v>16</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="6">
-        <v>11</v>
-      </c>
-      <c r="O2" s="7">
-        <v>10</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>7</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="6">
-        <v>3</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D4" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D5" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D12" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D13" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D14" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D15" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="D16" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.5">
-      <c r="D17" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.5">
-      <c r="D18" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.5">
-      <c r="D19" s="12" t="s">
-        <v>34</v>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D60" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D61" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D62" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D63" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D64" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="8">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -917,5 +2072,6 @@
     <hyperlink ref="M1" location="B寄存器选择!A1" display="B寄存器选择" xr:uid="{4A895906-EE8F-4655-B4FF-E8BD1E0BE2DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>